--- a/data/ModelG_Tocilizumab_Params.xlsx
+++ b/data/ModelG_Tocilizumab_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/GitHub/TMDD_EndogenousLigand/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA847C-DC56-4344-839B-521654612590}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BE430-5C2A-6C4D-AFF9-4A0EBFF7995C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="460" windowWidth="24100" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1480" windowWidth="24100" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <definedName name="ABCsol">Sheet1!#REF!</definedName>
     <definedName name="Cavg">Sheet1!#REF!</definedName>
     <definedName name="CL">Sheet1!#REF!</definedName>
-    <definedName name="CL_">Sheet1!$F$2</definedName>
+    <definedName name="CL_">Sheet1!$F$4</definedName>
     <definedName name="Dose">Sheet1!#REF!</definedName>
     <definedName name="eps">Sheet1!#REF!</definedName>
-    <definedName name="Imax">Sheet1!$F$17</definedName>
+    <definedName name="Imax">Sheet1!$F$21</definedName>
     <definedName name="k12D">Sheet1!#REF!</definedName>
     <definedName name="k13D">Sheet1!#REF!</definedName>
     <definedName name="k13d_prop">Sheet1!#REF!</definedName>
@@ -38,47 +38,48 @@
     <definedName name="k31D_thurber">Sheet1!#REF!</definedName>
     <definedName name="k31M">Sheet1!#REF!</definedName>
     <definedName name="Kd">Sheet1!#REF!</definedName>
-    <definedName name="Kd_DT">Sheet1!$F$21</definedName>
-    <definedName name="Kd_TL">Sheet1!$F$28</definedName>
-    <definedName name="kd_ugml">Sheet1!$F$20</definedName>
+    <definedName name="Kd_DT">Sheet1!$F$25</definedName>
+    <definedName name="Kd_TL">Sheet1!$F$32</definedName>
+    <definedName name="kd_ugml">Sheet1!$F$24</definedName>
     <definedName name="keD">Sheet1!#REF!</definedName>
     <definedName name="keD3_">Sheet1!#REF!</definedName>
     <definedName name="keDM3">Sheet1!#REF!</definedName>
     <definedName name="keDMtot">Sheet1!#REF!</definedName>
     <definedName name="keDS1">Sheet1!#REF!</definedName>
-    <definedName name="keDT">Sheet1!$F$18</definedName>
-    <definedName name="keL">Sheet1!$F$25</definedName>
+    <definedName name="keDT">Sheet1!$F$22</definedName>
+    <definedName name="keL">Sheet1!$F$29</definedName>
     <definedName name="keM">Sheet1!#REF!</definedName>
     <definedName name="keM3_">Sheet1!#REF!</definedName>
-    <definedName name="keT">Sheet1!$F$16</definedName>
-    <definedName name="keTs">Sheet1!$F$16</definedName>
+    <definedName name="keT">Sheet1!$F$20</definedName>
+    <definedName name="keTs">Sheet1!$F$20</definedName>
+    <definedName name="Km">Sheet1!$F$12</definedName>
     <definedName name="koff">Sheet1!#REF!</definedName>
-    <definedName name="koff_DT">Sheet1!$F$22</definedName>
-    <definedName name="koff_TL">Sheet1!$F$29</definedName>
+    <definedName name="koff_DT">Sheet1!$F$26</definedName>
+    <definedName name="koff_TL">Sheet1!$F$33</definedName>
     <definedName name="kon">Sheet1!#REF!</definedName>
     <definedName name="kshed">Sheet1!#REF!</definedName>
     <definedName name="kshedDM1">Sheet1!#REF!</definedName>
     <definedName name="kshedDM3">Sheet1!#REF!</definedName>
     <definedName name="kshedM1">Sheet1!#REF!</definedName>
     <definedName name="kshedM3">Sheet1!#REF!</definedName>
-    <definedName name="ksyn_ngml">Sheet1!$F$14</definedName>
-    <definedName name="ksynL">Sheet1!$F$24</definedName>
-    <definedName name="ksynTs">Sheet1!$F$15</definedName>
-    <definedName name="ksynTs_ngml">Sheet1!$F$14</definedName>
-    <definedName name="L0">Sheet1!$F$27</definedName>
+    <definedName name="ksyn_ngml">Sheet1!$F$18</definedName>
+    <definedName name="ksynL">Sheet1!$F$28</definedName>
+    <definedName name="ksynTs">Sheet1!$F$19</definedName>
+    <definedName name="ksynTs_ngml">Sheet1!$F$18</definedName>
+    <definedName name="L0">Sheet1!$F$31</definedName>
     <definedName name="M10_">Sheet1!#REF!</definedName>
     <definedName name="M30_">Sheet1!#REF!</definedName>
     <definedName name="Mfrac">Sheet1!#REF!</definedName>
-    <definedName name="MWD">Sheet1!$F$11</definedName>
+    <definedName name="MWD">Sheet1!$F$15</definedName>
     <definedName name="MWLm">Sheet1!#REF!</definedName>
-    <definedName name="MWLs">Sheet1!$F$13</definedName>
+    <definedName name="MWLs">Sheet1!$F$17</definedName>
     <definedName name="MWS">Sheet1!#REF!</definedName>
     <definedName name="MWTm">Sheet1!#REF!</definedName>
-    <definedName name="MWTs">Sheet1!$F$12</definedName>
+    <definedName name="MWTs">Sheet1!$F$16</definedName>
     <definedName name="Npercell">Sheet1!#REF!</definedName>
     <definedName name="P">Sheet1!#REF!</definedName>
     <definedName name="Q">Sheet1!#REF!</definedName>
-    <definedName name="Q_">Sheet1!$F$4</definedName>
+    <definedName name="Q_">Sheet1!$F$6</definedName>
     <definedName name="Rcap">Sheet1!#REF!</definedName>
     <definedName name="Rho">Sheet1!#REF!</definedName>
     <definedName name="Rhoblood">Sheet1!#REF!</definedName>
@@ -87,8 +88,8 @@
     <definedName name="S1acc">Sheet1!#REF!</definedName>
     <definedName name="Tau">Sheet1!#REF!</definedName>
     <definedName name="Tfrac">Sheet1!#REF!</definedName>
-    <definedName name="V1_">Sheet1!$F$3</definedName>
-    <definedName name="V2_">Sheet1!$F$5</definedName>
+    <definedName name="V1_">Sheet1!$F$5</definedName>
+    <definedName name="V2_">Sheet1!$F$7</definedName>
     <definedName name="Vc">Sheet1!#REF!</definedName>
     <definedName name="VcDS">Sheet1!#REF!</definedName>
     <definedName name="VcS">Sheet1!#REF!</definedName>
@@ -96,6 +97,7 @@
     <definedName name="VD2_">Sheet1!#REF!</definedName>
     <definedName name="VD3_">Sheet1!#REF!</definedName>
     <definedName name="VDS1_">Sheet1!#REF!</definedName>
+    <definedName name="Vm">Sheet1!$F$11</definedName>
     <definedName name="Vp">Sheet1!#REF!</definedName>
     <definedName name="VS1_">Sheet1!#REF!</definedName>
     <definedName name="Vtum">Sheet1!#REF!</definedName>
@@ -115,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="91">
   <si>
     <t>Parameter</t>
   </si>
@@ -367,6 +369,27 @@
   </si>
   <si>
     <t>WILL NEED TO BE TUNED TO CHAROIN DATA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>Bioavailabiity</t>
+  </si>
+  <si>
+    <t>set to 0 not used</t>
+  </si>
+  <si>
+    <t>Subcut. Absorption</t>
+  </si>
+  <si>
+    <t>Vm_ugml</t>
+  </si>
+  <si>
+    <t>Km_ugml</t>
   </si>
 </sst>
 </file>
@@ -374,8 +397,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -456,16 +479,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,13 +529,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -529,6 +549,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -556,108 +582,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <b val="0"/>
@@ -674,12 +599,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -698,13 +617,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -722,7 +642,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -753,7 +672,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -771,7 +690,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -789,14 +715,13 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -917,6 +842,207 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -938,21 +1064,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J30" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:J30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Order" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ParamType" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Formula" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment or Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1280,44 +1406,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="25" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="50.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="5"/>
+    <col min="10" max="10" width="50.33203125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1329,996 +1455,1162 @@
       <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>11</v>
+      <c r="D2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="14" t="str">
-        <f t="shared" ref="I2:I21" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
+        <v>87</v>
+      </c>
+      <c r="I2" s="24" t="str">
+        <f t="shared" ref="I2:I3" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
         <v/>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="17">
-        <v>3.71</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>2</v>
+      <c r="D3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="14" t="str">
+        <v>87</v>
+      </c>
+      <c r="I3" s="24" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I4" s="13" t="str">
+        <f t="shared" ref="I4:I25" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F4),"")</f>
         <v/>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="17">
-        <v>3.45</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="16">
+        <v>3.71</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I5" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3.45</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F8" s="17">
         <f>CL_/V1_</f>
         <v>7.7897574123989219E-2</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F6),"")</f>
+      <c r="I8" s="13" t="str">
+        <f t="shared" ref="I8:I17" ca="1" si="2">_xlfn.IFNA(_xlfn.FORMULATEXT(F8),"")</f>
         <v>=CL_/V1_</v>
       </c>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F9" s="17">
         <f>Q_/V1_</f>
         <v>5.4447439353099737E-2</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F7),"")</f>
+      <c r="I9" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=Q_/V1_</v>
       </c>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F10" s="17">
         <f>Q_/V2_</f>
         <v>5.8550724637681163E-2</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="2" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F8),"")</f>
+      <c r="I10" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=Q_/V2_</v>
       </c>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="16">
         <v>1.41</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F9),"")</f>
-        <v/>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F10),"")</f>
-        <v/>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="17">
-        <v>148</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F11),"")</f>
+      <c r="I11" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>66</v>
+      <c r="J11" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="17">
-        <v>52</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>31</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F12),"")</f>
+      <c r="I12" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="18">
+        <f>Vm*1000/MWD</f>
+        <v>9.5270270270270263</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F13),"")</f>
+        <v>=Vm*1000/MWD</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="18">
+        <f>Km*1000/MWD</f>
+        <v>2.4797297297297298</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F14),"")</f>
+        <v>=Km*1000/MWD</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="16">
+        <v>148</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="16">
+        <v>52</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F17" s="16">
         <v>21</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F13),"")</f>
+      <c r="I17" s="13" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F18" s="16">
         <v>47.8</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I18" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F19" s="18">
         <f>ksyn_ngml/MWTs</f>
         <v>0.91923076923076918</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F15),"")</f>
+      <c r="I19" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F19),"")</f>
         <v>=ksyn_ngml/MWTs</v>
       </c>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F20" s="16">
         <v>1.26</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I20" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F21" s="16">
         <v>0.93899999999999995</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F17),"")</f>
+      <c r="I21" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F21),"")</f>
         <v/>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J21" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F22" s="17">
         <f>(1-Imax)*keTs</f>
         <v>7.6860000000000067E-2</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F18),"")</f>
+      <c r="I22" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F22),"")</f>
         <v>=(1-Imax)*keTs</v>
       </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F23" s="18">
         <f>ksynTs/keTs</f>
         <v>0.72954822954822951</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F19),"")</f>
+      <c r="I23" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F23),"")</f>
         <v>=ksynTs/keTs</v>
       </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F24" s="16">
         <v>0.182</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I24" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F25" s="16">
         <f>kd_ugml/MWTs*1000</f>
         <v>3.5</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I25" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=kd_ugml/MWTs*1000</v>
       </c>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F26" s="22">
         <v>5</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="24" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F22),"")</f>
+      <c r="I26" s="23" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F26),"")</f>
         <v/>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F27" s="20">
         <f>koff_DT/Kd_DT</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F23),"")</f>
+      <c r="I27" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F27),"")</f>
         <v>=koff_DT/Kd_DT</v>
       </c>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F28" s="19">
         <f>L0*keL</f>
         <v>0.08</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="14" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F24),"")</f>
+      <c r="I28" s="13" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F28),"")</f>
         <v>=L0*keL</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F29" s="15">
         <v>40</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="14" t="str">
-        <f t="shared" ref="I25:I30" ca="1" si="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F25),"")</f>
+      <c r="I29" s="13" t="str">
+        <f t="shared" ref="I29:I34" ca="1" si="3">_xlfn.IFNA(_xlfn.FORMULATEXT(F29),"")</f>
         <v/>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="12" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F30" s="22">
         <f>keT</f>
         <v>1.26</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="24" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I30" s="23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>=keT</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="12" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F31" s="15">
         <f>0.002</f>
         <v>2E-3</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="14" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I31" s="13" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>=0.002</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="12" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F32" s="15">
         <v>1</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="14" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I32" s="13" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
-        <v>28</v>
-      </c>
-      <c r="B29" s="12" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F33" s="22">
         <v>5</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="24" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F29),"")</f>
+      <c r="I33" s="23" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F33),"")</f>
         <v/>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F34" s="15">
         <f>koff_TL/Kd_TL</f>
         <v>5</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="14" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I34" s="13" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>=koff_TL/Kd_TL</v>
       </c>
-      <c r="J30" s="15"/>
+      <c r="J34" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F212">
-    <cfRule type="containsText" dxfId="9" priority="39" operator="containsText" text="derived">
-      <formula>NOT(ISERROR(SEARCH("derived",F212)))</formula>
+  <conditionalFormatting sqref="F216">
+    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="derived">
+      <formula>NOT(ISERROR(SEARCH("derived",F216)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="containsText" dxfId="8" priority="36" operator="containsText" text="calc">
+  <conditionalFormatting sqref="A1:K1 A35:K1048576 K2:K3 B4:K12 B15:K34 E13:K14">
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="containsText" dxfId="7" priority="34" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H1:I1 H4:I1048576">
+    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="28" priority="46" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1048576">
-    <cfRule type="containsText" dxfId="5" priority="29" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H1:I1 H4:I1048576">
+    <cfRule type="containsText" dxfId="27" priority="40" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="30" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="26" priority="41" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="31" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="25" priority="42" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="32" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="33" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="23" priority="44" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="28" operator="containsText" text="internal data">
+  <conditionalFormatting sqref="H1 H4:H1048576">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:J3 A4:A34">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I3">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I3">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:D14">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
